--- a/R/analysis/data/Pt_07_Control.xlsx
+++ b/R/analysis/data/Pt_07_Control.xlsx
@@ -524,7 +524,7 @@
         <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.2</v>
+        <v>2.2</v>
       </c>
       <c r="O2" t="n">
         <v>0.35</v>
@@ -576,7 +576,7 @@
         <v>1.51</v>
       </c>
       <c r="L3" t="n">
-        <v>-5.38</v>
+        <v>5.38</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="e">
@@ -629,14 +629,14 @@
         <v>0.82</v>
       </c>
       <c r="K4" t="n">
-        <v>4.74</v>
+        <v>2.86</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.02</v>
+        <v>3.36</v>
       </c>
       <c r="M4"/>
       <c r="N4" t="n">
-        <v>-2.2</v>
+        <v>2.2</v>
       </c>
       <c r="O4" t="n">
         <v>0.08</v>
@@ -696,7 +696,7 @@
         <v>2.65</v>
       </c>
       <c r="N5" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>1.8</v>
       </c>
       <c r="L6" t="n">
-        <v>-5.29</v>
+        <v>5.29</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="n">
@@ -803,16 +803,16 @@
         <v>0.46</v>
       </c>
       <c r="K7" t="n">
-        <v>5.86</v>
+        <v>1.62</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.15</v>
+        <v>4.14</v>
       </c>
       <c r="M7" t="n">
-        <v>4.24</v>
+        <v>2.83</v>
       </c>
       <c r="N7" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>1.53</v>
       </c>
       <c r="N8" t="n">
-        <v>-2.33</v>
+        <v>2.33</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>2.14</v>
       </c>
       <c r="L9" t="n">
-        <v>-4.5</v>
+        <v>4.5</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="e">
@@ -977,14 +977,14 @@
         <v>0.82</v>
       </c>
       <c r="K10" t="n">
-        <v>5.3</v>
+        <v>1.06</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.75</v>
+        <v>3.75</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="n">
-        <v>-2.33</v>
+        <v>2.33</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>2.52</v>
       </c>
       <c r="N11" t="n">
-        <v>-4.67</v>
+        <v>4.67</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>1.36</v>
       </c>
       <c r="L12" t="n">
-        <v>-4.88</v>
+        <v>4.88</v>
       </c>
       <c r="M12"/>
       <c r="N12" t="e">
@@ -1149,14 +1149,14 @@
         <v>0.55</v>
       </c>
       <c r="K13" t="n">
-        <v>5.15</v>
+        <v>1.75</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.24</v>
+        <v>3.64</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="n">
-        <v>-4.67</v>
+        <v>4.67</v>
       </c>
       <c r="O13" t="n">
         <v>0.08</v>
@@ -1216,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>2.3</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.88</v>
+        <v>3.88</v>
       </c>
       <c r="M15"/>
       <c r="N15" t="e">
@@ -1321,14 +1321,14 @@
         <v>0.83</v>
       </c>
       <c r="K16" t="n">
-        <v>5.43</v>
+        <v>0.06</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.04</v>
+        <v>3.84</v>
       </c>
       <c r="M16"/>
       <c r="N16" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>1.41</v>
       </c>
       <c r="N17" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         <v>1.67</v>
       </c>
       <c r="L18" t="n">
-        <v>-4.75</v>
+        <v>4.75</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="e">
@@ -1493,14 +1493,14 @@
         <v>0.32</v>
       </c>
       <c r="K19" t="n">
-        <v>6.31</v>
+        <v>0.41</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.29</v>
+        <v>4.46</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
         <v>0.08</v>
@@ -1560,7 +1560,7 @@
         <v>4.24</v>
       </c>
       <c r="N20" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="M21"/>
       <c r="N21" t="e">
@@ -1665,14 +1665,14 @@
         <v>0.46</v>
       </c>
       <c r="K22" t="n">
-        <v>3.06</v>
+        <v>1.18</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.84</v>
+        <v>2.16</v>
       </c>
       <c r="M22"/>
       <c r="N22" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="M23"/>
       <c r="N23" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>2.06</v>
       </c>
       <c r="L24" t="n">
-        <v>-2.75</v>
+        <v>2.75</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1839,16 +1839,16 @@
         <v>0.48</v>
       </c>
       <c r="K25" t="n">
-        <v>3.05</v>
+        <v>0.83</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.59</v>
+        <v>2.16</v>
       </c>
       <c r="M25" t="n">
-        <v>5.66</v>
+        <v>4.24</v>
       </c>
       <c r="N25" t="n">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="M26"/>
       <c r="N26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1958,7 +1958,7 @@
         <v>1.3</v>
       </c>
       <c r="L27" t="n">
-        <v>-1.8</v>
+        <v>1.8</v>
       </c>
       <c r="M27" t="n">
         <v>0.58</v>
@@ -2015,16 +2015,16 @@
         <v>0.86</v>
       </c>
       <c r="K28" t="n">
-        <v>2.69</v>
+        <v>0.14</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1</v>
+        <v>1.9</v>
       </c>
       <c r="M28" t="n">
-        <v>1.65</v>
+        <v>0.23</v>
       </c>
       <c r="N28" t="n">
-        <v>0.17</v>
+        <v>1.17</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
